--- a/CARGA MASIVA.xlsx
+++ b/CARGA MASIVA.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karly\Downloads\Proyecto-servicio-master3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mahmu\OneDrive\Escritorio\Nueva carpeta\Proyecto-servicio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C42A13E2-055E-484E-A258-08C9F99B725A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B99829F-2E26-47B1-BBFE-EC03363DBA5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Datos Docentes" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>ACOSTA SOLO , JESUS ALEHANDRO</t>
   </si>
@@ -55,6 +56,39 @@
   </si>
   <si>
     <t>PRUEBA E, PRUEBA Q</t>
+  </si>
+  <si>
+    <t>aldan, karly</t>
+  </si>
+  <si>
+    <t>cedula</t>
+  </si>
+  <si>
+    <t>apellido, nombre</t>
+  </si>
+  <si>
+    <t>tipo de persona</t>
+  </si>
+  <si>
+    <t>docente</t>
+  </si>
+  <si>
+    <t>parada, luis</t>
+  </si>
+  <si>
+    <t>mrk</t>
+  </si>
+  <si>
+    <t>abder, samir</t>
+  </si>
+  <si>
+    <t>lcdo</t>
+  </si>
+  <si>
+    <t>fggf</t>
+  </si>
+  <si>
+    <t>ghhg</t>
   </si>
 </sst>
 </file>
@@ -374,17 +408,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.26953125" customWidth="1"/>
-    <col min="2" max="2" width="32.6328125" customWidth="1"/>
+    <col min="1" max="1" width="12.21875" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>29590872</v>
       </c>
@@ -392,7 +426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>26123412</v>
       </c>
@@ -400,7 +434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>30675453</v>
       </c>
@@ -408,7 +442,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>12345678</v>
       </c>
@@ -416,7 +450,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>28345725</v>
       </c>
@@ -424,7 +458,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>29590871</v>
       </c>
@@ -432,7 +466,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>23456789</v>
       </c>
@@ -440,7 +474,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>29590873</v>
       </c>
@@ -448,7 +482,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>29590874</v>
       </c>
@@ -456,7 +490,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>29590875</v>
       </c>
@@ -467,4 +501,73 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA373293-06DF-493A-BB6D-8B7CBDB2BC76}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>212123</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>43434</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>23332</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>